--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/42/word_level_predictions_42.xlsx
@@ -4090,156 +4090,156 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" t="n">
         <v>3</v>
       </c>
-      <c r="B71" s="2" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C71" s="2" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D71" s="2" t="n">
+      <c r="D71" t="n">
         <v>5</v>
       </c>
-      <c r="E71" s="2" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F71" s="2" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G71" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I71" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K71" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L71" s="2" t="inlineStr">
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I71" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K71" t="b">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="A72" t="n">
         <v>3</v>
       </c>
-      <c r="B72" s="2" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C72" s="2" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D72" s="2" t="n">
+      <c r="D72" t="n">
         <v>6</v>
       </c>
-      <c r="E72" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F72" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G72" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I72" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K72" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L72" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I72" t="b">
+        <v>1</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K72" t="b">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
+      <c r="A73" t="n">
         <v>3</v>
       </c>
-      <c r="B73" s="2" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C73" s="2" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D73" s="2" t="n">
+      <c r="D73" t="n">
         <v>7</v>
       </c>
-      <c r="E73" s="2" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F73" s="2" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G73" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I73" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K73" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L73" s="2" t="inlineStr">
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I73" t="b">
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K73" t="b">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4402,260 +4402,260 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
+      <c r="A77" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C77" s="2" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D77" t="n">
+      <c r="D77" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E77" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F77" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K77" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>ambient</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E78" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F78" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>light</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>light</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>13</v>
-      </c>
-      <c r="E79" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>too</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B81" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>too</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>14</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>3</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
+      <c r="C81" s="2" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="D81" t="n">
+      <c r="D81" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E81" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="F81" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>1</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K81" t="b">
-        <v>1</v>
-      </c>
-      <c r="L81" t="inlineStr">
+      <c r="G81" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="F99" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G99" s="2" t="b">
@@ -5581,11 +5581,11 @@
         </is>
       </c>
       <c r="I99" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K99" s="2" t="b">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="L99" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5633,11 +5633,11 @@
         </is>
       </c>
       <c r="I100" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K100" s="2" t="b">
@@ -5685,11 +5685,11 @@
         </is>
       </c>
       <c r="I101" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K101" s="2" t="b">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G102" s="2" t="b">
@@ -5737,11 +5737,11 @@
         </is>
       </c>
       <c r="I102" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K102" s="2" t="b">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7782,104 +7782,104 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
+      <c r="A142" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B142" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C142" s="2" t="inlineStr">
         <is>
           <t>Solution:</t>
         </is>
       </c>
-      <c r="D142" t="n">
+      <c r="D142" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="E142" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="F142" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G142" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" t="b">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K142" t="b">
-        <v>1</v>
-      </c>
-      <c r="L142" t="inlineStr">
+      <c r="G142" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
+      <c r="A143" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B143" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C143" s="2" t="inlineStr">
         <is>
           <t>1.</t>
         </is>
       </c>
-      <c r="D143" t="n">
+      <c r="D143" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" t="b">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K143" t="b">
-        <v>1</v>
-      </c>
-      <c r="L143" t="inlineStr">
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G144" t="b">
@@ -7933,7 +7933,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -9342,208 +9342,208 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
+      <c r="A172" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B172" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C172" s="2" t="inlineStr">
         <is>
           <t>Calibrate</t>
         </is>
       </c>
-      <c r="D172" t="n">
+      <c r="D172" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
+      <c r="E172" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F172" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G172" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I172" t="b">
-        <v>1</v>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K172" t="b">
-        <v>1</v>
-      </c>
-      <c r="L172" t="inlineStr">
+      <c r="G172" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J172" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L172" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
+      <c r="A173" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B173" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="C173" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D173" t="n">
+      <c r="D173" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G173" t="b">
-        <v>1</v>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I173" t="b">
-        <v>1</v>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K173" t="b">
-        <v>1</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E173" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F173" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G173" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I173" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J173" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K173" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L173" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" s="2" t="inlineStr">
         <is>
           <t>Before</t>
         </is>
       </c>
-      <c r="D174" t="n">
+      <c r="D174" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G174" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I174" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K174" t="b">
-        <v>1</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="E174" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F174" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G174" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C175" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D175" t="n">
+      <c r="D175" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="E175" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="F175" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G175" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I175" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K175" t="b">
-        <v>1</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="G175" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem5/42/word_level_predictions_42.xlsx
@@ -4090,156 +4090,156 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
+      <c r="A71" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C71" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D71" t="n">
+      <c r="D71" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E71" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="F71" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G71" t="b">
-        <v>1</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I71" t="b">
-        <v>1</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K71" t="b">
-        <v>1</v>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="G71" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I71" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K71" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L71" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
+      <c r="A72" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C72" s="2" t="inlineStr">
         <is>
           <t>avoidance</t>
         </is>
       </c>
-      <c r="D72" t="n">
+      <c r="D72" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I72" t="b">
-        <v>1</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K72" t="b">
-        <v>1</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I72" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K72" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L72" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
+      <c r="A73" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" s="2" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C73" s="2" t="inlineStr">
         <is>
           <t>unavailable</t>
         </is>
       </c>
-      <c r="D73" t="n">
+      <c r="D73" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E73" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="F73" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I73" t="b">
-        <v>1</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K73" t="b">
-        <v>1</v>
-      </c>
-      <c r="L73" t="inlineStr">
+      <c r="G73" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I73" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K73" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4402,260 +4402,260 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" t="n">
         <v>3</v>
       </c>
-      <c r="B77" s="2" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C77" s="2" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>Backward</t>
         </is>
       </c>
-      <c r="D77" s="2" t="n">
+      <c r="D77" t="n">
         <v>11</v>
       </c>
-      <c r="E77" s="2" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F77" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L77" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" t="n">
         <v>3</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>ambient</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" t="n">
         <v>12</v>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" t="n">
         <v>3</v>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="D79" s="2" t="n">
+      <c r="D79" t="n">
         <v>13</v>
       </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" t="n">
         <v>3</v>
       </c>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>too</t>
         </is>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" t="n">
         <v>14</v>
       </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" t="n">
         <v>3</v>
       </c>
-      <c r="B81" s="2" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
-      <c r="C81" s="2" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="D81" s="2" t="n">
+      <c r="D81" t="n">
         <v>15</v>
       </c>
-      <c r="E81" s="2" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F81" s="2" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G81" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K81" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L81" s="2" t="inlineStr">
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K81" t="b">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="F99" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G99" s="2" t="b">
@@ -5581,11 +5581,11 @@
         </is>
       </c>
       <c r="I99" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K99" s="2" t="b">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="L99" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -5633,11 +5633,11 @@
         </is>
       </c>
       <c r="I100" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K100" s="2" t="b">
@@ -5685,11 +5685,11 @@
         </is>
       </c>
       <c r="I101" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K101" s="2" t="b">
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G102" s="2" t="b">
@@ -5737,11 +5737,11 @@
         </is>
       </c>
       <c r="I102" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K102" s="2" t="b">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -7782,104 +7782,104 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
+      <c r="A142" t="n">
         <v>6</v>
       </c>
-      <c r="B142" s="2" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C142" s="2" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>Solution:</t>
         </is>
       </c>
-      <c r="D142" s="2" t="n">
+      <c r="D142" t="n">
         <v>2</v>
       </c>
-      <c r="E142" s="2" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F142" s="2" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G142" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L142" s="2" t="inlineStr">
+      <c r="G142" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" t="b">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
+      <c r="A143" t="n">
         <v>6</v>
       </c>
-      <c r="B143" s="2" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C143" s="2" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>1.</t>
         </is>
       </c>
-      <c r="D143" s="2" t="n">
+      <c r="D143" t="n">
         <v>3</v>
       </c>
-      <c r="E143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L143" s="2" t="inlineStr">
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G144" t="b">
@@ -7933,7 +7933,7 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9342,208 +9342,208 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n">
+      <c r="A172" t="n">
         <v>6</v>
       </c>
-      <c r="B172" s="2" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C172" s="2" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>Calibrate</t>
         </is>
       </c>
-      <c r="D172" s="2" t="n">
+      <c r="D172" t="n">
         <v>32</v>
       </c>
-      <c r="E172" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F172" s="2" t="inlineStr">
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G172" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L172" s="2" t="inlineStr">
+      <c r="G172" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I172" t="b">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="n">
+      <c r="A173" t="n">
         <v>6</v>
       </c>
-      <c r="B173" s="2" t="inlineStr">
+      <c r="B173" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C173" s="2" t="inlineStr">
+      <c r="C173" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D173" s="2" t="n">
+      <c r="D173" t="n">
         <v>33</v>
       </c>
-      <c r="E173" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F173" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G173" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H173" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I173" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K173" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L173" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G173" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I173" t="b">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K173" t="b">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" t="n">
         <v>6</v>
       </c>
-      <c r="B174" s="2" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C174" s="2" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>Before</t>
         </is>
       </c>
-      <c r="D174" s="2" t="n">
+      <c r="D174" t="n">
         <v>34</v>
       </c>
-      <c r="E174" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F174" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G174" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L174" s="2" t="inlineStr">
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" t="n">
         <v>6</v>
       </c>
-      <c r="B175" s="2" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C175" s="2" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D175" s="2" t="n">
+      <c r="D175" t="n">
         <v>35</v>
       </c>
-      <c r="E175" s="2" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F175" s="2" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G175" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L175" s="2" t="inlineStr">
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
